--- a/biology/Médecine/Scintigraphie_au_gallium/Scintigraphie_au_gallium.xlsx
+++ b/biology/Médecine/Scintigraphie_au_gallium/Scintigraphie_au_gallium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La scintigraphie au gallium est un type de test de médecine nucléaire utilisant un gallium-67 (67Ga) ou gallium-68 (68Ga) radio-pharmaceutique pour obtenir des images d'un type spécifique de tissu, ou l'état de maladie tissulaire. Les sels de gallium peuvent être utilisés comme citrate de gallium et nitrate de gallium. La forme de sel n'est pas importante, car c'est l'ion de gallium libre dissous Ga3+ qui est actif[1]. Les sels 67Ga et 68Ga ont des mécanismes de captage similaires[2]. Le gallium peut également être utilisé sous d'autres formes, par exemple 68Ga-PSMA est utilisé pour l'imagerie du cancer de prostate. L'émission gamma de gallium-67 est détectée par une caméra gamma, tandis que l'émission de positons de gallium-68 est détectée par tomographie par émission de positons (PET).
-Les sels de gallium sont absorbés par les tumeurs, l'inflammation et les infections aiguës et chroniques[3],[4] permettant l'imagerie de ces processus pathologiques. Le gallium est extrêmement utile pour l'imagerie de l'ostéomyélite impliquant la colonne vertébrale et pour l'imagerie d'infections plus anciennes et chroniques pouvant être à l'origine d'une fièvre d'origine inconnue[5],[6].
-Les analyses DOTA au gallium-68 remplacent de plus en plus les analyses à l'octréotide (un type d'analyse à l'indium-111 utilisant l'octréotide comme ligand du récepteur de la somatostatine). Le gallium-68 est lié à un produit chimique dérivé de l'octréotide tel que DOTATOC et les positons qu'il émet sont imagés par PET-CT. Ces analyses sont utiles pour localiser les tumeurs neuroendocrines et le cancer du pancréas[7],[8].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La scintigraphie au gallium est un type de test de médecine nucléaire utilisant un gallium-67 (67Ga) ou gallium-68 (68Ga) radio-pharmaceutique pour obtenir des images d'un type spécifique de tissu, ou l'état de maladie tissulaire. Les sels de gallium peuvent être utilisés comme citrate de gallium et nitrate de gallium. La forme de sel n'est pas importante, car c'est l'ion de gallium libre dissous Ga3+ qui est actif. Les sels 67Ga et 68Ga ont des mécanismes de captage similaires. Le gallium peut également être utilisé sous d'autres formes, par exemple 68Ga-PSMA est utilisé pour l'imagerie du cancer de prostate. L'émission gamma de gallium-67 est détectée par une caméra gamma, tandis que l'émission de positons de gallium-68 est détectée par tomographie par émission de positons (PET).
+Les sels de gallium sont absorbés par les tumeurs, l'inflammation et les infections aiguës et chroniques, permettant l'imagerie de ces processus pathologiques. Le gallium est extrêmement utile pour l'imagerie de l'ostéomyélite impliquant la colonne vertébrale et pour l'imagerie d'infections plus anciennes et chroniques pouvant être à l'origine d'une fièvre d'origine inconnue,.
+Les analyses DOTA au gallium-68 remplacent de plus en plus les analyses à l'octréotide (un type d'analyse à l'indium-111 utilisant l'octréotide comme ligand du récepteur de la somatostatine). Le gallium-68 est lié à un produit chimique dérivé de l'octréotide tel que DOTATOC et les positons qu'il émet sont imagés par PET-CT. Ces analyses sont utiles pour localiser les tumeurs neuroendocrines et le cancer du pancréas,.
 </t>
         </is>
       </c>
